--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Cntfr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H2">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I2">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J2">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.3125770825127</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N2">
-        <v>2.3125770825127</v>
+        <v>0.03094</v>
       </c>
       <c r="O2">
-        <v>0.9080832877644958</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="P2">
-        <v>0.9080832877644958</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="Q2">
-        <v>1.601092856908227</v>
+        <v>0.002455364022222222</v>
       </c>
       <c r="R2">
-        <v>1.601092856908227</v>
+        <v>0.0220982762</v>
       </c>
       <c r="S2">
-        <v>0.1724106869352863</v>
+        <v>0.0002011706132214364</v>
       </c>
       <c r="T2">
-        <v>0.1724106869352863</v>
+        <v>0.0002011706132214364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H3">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I3">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J3">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.234080381259994</v>
+        <v>2.346137</v>
       </c>
       <c r="N3">
-        <v>0.234080381259994</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O3">
-        <v>0.09191671223550434</v>
+        <v>0.9031062577580099</v>
       </c>
       <c r="P3">
-        <v>0.09191671223550434</v>
+        <v>0.9031062577580099</v>
       </c>
       <c r="Q3">
-        <v>0.1620635390758581</v>
+        <v>0.5585604765033334</v>
       </c>
       <c r="R3">
-        <v>0.1620635390758581</v>
+        <v>5.027044288530001</v>
       </c>
       <c r="S3">
-        <v>0.01745150881079341</v>
+        <v>0.0457634601478508</v>
       </c>
       <c r="T3">
-        <v>0.01745150881079341</v>
+        <v>0.04576346014785079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.58556292553231</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H4">
-        <v>1.58556292553231</v>
+        <v>0.71423</v>
       </c>
       <c r="I4">
-        <v>0.4348121579329634</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J4">
-        <v>0.4348121579329634</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.3125770825127</v>
+        <v>0.2414023333333334</v>
       </c>
       <c r="N4">
-        <v>2.3125770825127</v>
+        <v>0.724207</v>
       </c>
       <c r="O4">
-        <v>0.9080832877644958</v>
+        <v>0.09292379680756852</v>
       </c>
       <c r="P4">
-        <v>0.9080832877644958</v>
+        <v>0.0929237968075685</v>
       </c>
       <c r="Q4">
-        <v>3.666736484467811</v>
+        <v>0.05747226284555557</v>
       </c>
       <c r="R4">
-        <v>3.666736484467811</v>
+        <v>0.51725036561</v>
       </c>
       <c r="S4">
-        <v>0.3948456539357406</v>
+        <v>0.004708764262742626</v>
       </c>
       <c r="T4">
-        <v>0.3948456539357406</v>
+        <v>0.004708764262742624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H5">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I5">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J5">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.234080381259994</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N5">
-        <v>0.234080381259994</v>
+        <v>0.03094</v>
       </c>
       <c r="O5">
-        <v>0.09191671223550434</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="P5">
-        <v>0.09191671223550434</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="Q5">
-        <v>0.3711491741203146</v>
+        <v>0.002863747957777778</v>
       </c>
       <c r="R5">
-        <v>0.3711491741203146</v>
+        <v>0.02577373162</v>
       </c>
       <c r="S5">
-        <v>0.03996650399722285</v>
+        <v>0.0002346299479685264</v>
       </c>
       <c r="T5">
-        <v>0.03996650399722285</v>
+        <v>0.0002346299479685264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.986863132142566</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H6">
-        <v>0.986863132142566</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I6">
-        <v>0.2706294913696557</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J6">
-        <v>0.2706294913696557</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.3125770825127</v>
+        <v>2.346137</v>
       </c>
       <c r="N6">
-        <v>2.3125770825127</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O6">
-        <v>0.9080832877644958</v>
+        <v>0.9031062577580099</v>
       </c>
       <c r="P6">
-        <v>0.9080832877644958</v>
+        <v>0.9031062577580099</v>
       </c>
       <c r="Q6">
-        <v>2.2821970629696</v>
+        <v>0.6514620273836668</v>
       </c>
       <c r="R6">
-        <v>2.2821970629696</v>
+        <v>5.863158246453001</v>
       </c>
       <c r="S6">
-        <v>0.2457541182889902</v>
+        <v>0.05337498405659678</v>
       </c>
       <c r="T6">
-        <v>0.2457541182889902</v>
+        <v>0.05337498405659678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.986863132142566</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H7">
-        <v>0.986863132142566</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I7">
-        <v>0.2706294913696557</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J7">
-        <v>0.2706294913696557</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.234080381259994</v>
+        <v>0.2414023333333334</v>
       </c>
       <c r="N7">
-        <v>0.234080381259994</v>
+        <v>0.724207</v>
       </c>
       <c r="O7">
-        <v>0.09191671223550434</v>
+        <v>0.09292379680756852</v>
       </c>
       <c r="P7">
-        <v>0.09191671223550434</v>
+        <v>0.0929237968075685</v>
       </c>
       <c r="Q7">
-        <v>0.2310052982233637</v>
+        <v>0.06703123197344446</v>
       </c>
       <c r="R7">
-        <v>0.2310052982233637</v>
+        <v>0.6032810877610001</v>
       </c>
       <c r="S7">
-        <v>0.02487537308066555</v>
+        <v>0.005491940876808102</v>
       </c>
       <c r="T7">
-        <v>0.02487537308066555</v>
+        <v>0.005491940876808101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.381779439024247</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H8">
-        <v>0.381779439024247</v>
+        <v>2.151613</v>
       </c>
       <c r="I8">
-        <v>0.1046961549513011</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J8">
-        <v>0.1046961549513011</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.3125770825127</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N8">
-        <v>2.3125770825127</v>
+        <v>0.03094</v>
       </c>
       <c r="O8">
-        <v>0.9080832877644958</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="P8">
-        <v>0.9080832877644958</v>
+        <v>0.003969945434421608</v>
       </c>
       <c r="Q8">
-        <v>0.8828943812620283</v>
+        <v>0.007396767357777778</v>
       </c>
       <c r="R8">
-        <v>0.8828943812620283</v>
+        <v>0.06657090622</v>
       </c>
       <c r="S8">
-        <v>0.09507282860447862</v>
+        <v>0.0006060250992330406</v>
       </c>
       <c r="T8">
-        <v>0.09507282860447862</v>
+        <v>0.0006060250992330406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7172043333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.151613</v>
+      </c>
+      <c r="I9">
+        <v>0.1526532566363432</v>
+      </c>
+      <c r="J9">
+        <v>0.1526532566363432</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.346137</v>
+      </c>
+      <c r="N9">
+        <v>7.038411000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="P9">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="Q9">
+        <v>1.682659622993667</v>
+      </c>
+      <c r="R9">
+        <v>15.143936606943</v>
+      </c>
+      <c r="S9">
+        <v>0.137862111335421</v>
+      </c>
+      <c r="T9">
+        <v>0.137862111335421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7172043333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.151613</v>
+      </c>
+      <c r="I10">
+        <v>0.1526532566363432</v>
+      </c>
+      <c r="J10">
+        <v>0.1526532566363432</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2414023333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.724207</v>
+      </c>
+      <c r="O10">
+        <v>0.09292379680756852</v>
+      </c>
+      <c r="P10">
+        <v>0.0929237968075685</v>
+      </c>
+      <c r="Q10">
+        <v>0.1731347995434445</v>
+      </c>
+      <c r="R10">
+        <v>1.558213195891</v>
+      </c>
+      <c r="S10">
+        <v>0.01418512020168916</v>
+      </c>
+      <c r="T10">
+        <v>0.01418512020168916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.672201</v>
+      </c>
+      <c r="H11">
+        <v>5.016603</v>
+      </c>
+      <c r="I11">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="J11">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01031333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.03094</v>
+      </c>
+      <c r="O11">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="P11">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="Q11">
+        <v>0.01724596631333333</v>
+      </c>
+      <c r="R11">
+        <v>0.15521369682</v>
+      </c>
+      <c r="S11">
+        <v>0.001412980555001187</v>
+      </c>
+      <c r="T11">
+        <v>0.001412980555001187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.672201</v>
+      </c>
+      <c r="H12">
+        <v>5.016603</v>
+      </c>
+      <c r="I12">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="J12">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.346137</v>
+      </c>
+      <c r="N12">
+        <v>7.038411000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="P12">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="Q12">
+        <v>3.923212637537</v>
+      </c>
+      <c r="R12">
+        <v>35.308913737833</v>
+      </c>
+      <c r="S12">
+        <v>0.3214330278314951</v>
+      </c>
+      <c r="T12">
+        <v>0.3214330278314951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.672201</v>
+      </c>
+      <c r="H13">
+        <v>5.016603</v>
+      </c>
+      <c r="I13">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="J13">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2414023333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.724207</v>
+      </c>
+      <c r="O13">
+        <v>0.09292379680756852</v>
+      </c>
+      <c r="P13">
+        <v>0.0929237968075685</v>
+      </c>
+      <c r="Q13">
+        <v>0.4036732232023334</v>
+      </c>
+      <c r="R13">
+        <v>3.633059008821</v>
+      </c>
+      <c r="S13">
+        <v>0.03307338102119407</v>
+      </c>
+      <c r="T13">
+        <v>0.03307338102119407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H14">
+        <v>3.150995</v>
+      </c>
+      <c r="I14">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J14">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01031333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.03094</v>
+      </c>
+      <c r="O14">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="P14">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="Q14">
+        <v>0.01083242058888889</v>
+      </c>
+      <c r="R14">
+        <v>0.09749178529999998</v>
+      </c>
+      <c r="S14">
+        <v>0.0008875118608959018</v>
+      </c>
+      <c r="T14">
+        <v>0.0008875118608959018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H15">
+        <v>3.150995</v>
+      </c>
+      <c r="I15">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J15">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.346137</v>
+      </c>
+      <c r="N15">
+        <v>7.038411000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="P15">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="Q15">
+        <v>2.464221985438333</v>
+      </c>
+      <c r="R15">
+        <v>22.177997868945</v>
+      </c>
+      <c r="S15">
+        <v>0.20189635566775</v>
+      </c>
+      <c r="T15">
+        <v>0.20189635566775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.381779439024247</v>
-      </c>
-      <c r="H9">
-        <v>0.381779439024247</v>
-      </c>
-      <c r="I9">
-        <v>0.1046961549513011</v>
-      </c>
-      <c r="J9">
-        <v>0.1046961549513011</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.234080381259994</v>
-      </c>
-      <c r="N9">
-        <v>0.234080381259994</v>
-      </c>
-      <c r="O9">
-        <v>0.09191671223550434</v>
-      </c>
-      <c r="P9">
-        <v>0.09191671223550434</v>
-      </c>
-      <c r="Q9">
-        <v>0.08936707664402237</v>
-      </c>
-      <c r="R9">
-        <v>0.08936707664402237</v>
-      </c>
-      <c r="S9">
-        <v>0.009623326346822518</v>
-      </c>
-      <c r="T9">
-        <v>0.009623326346822518</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H16">
+        <v>3.150995</v>
+      </c>
+      <c r="I16">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J16">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2414023333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.724207</v>
+      </c>
+      <c r="O16">
+        <v>0.09292379680756852</v>
+      </c>
+      <c r="P16">
+        <v>0.0929237968075685</v>
+      </c>
+      <c r="Q16">
+        <v>0.2535525151072222</v>
+      </c>
+      <c r="R16">
+        <v>2.281972635965</v>
+      </c>
+      <c r="S16">
+        <v>0.02077383006605813</v>
+      </c>
+      <c r="T16">
+        <v>0.02077383006605812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.228309</v>
+      </c>
+      <c r="I17">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J17">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01031333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.03094</v>
+      </c>
+      <c r="O17">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="P17">
+        <v>0.003969945434421608</v>
+      </c>
+      <c r="Q17">
+        <v>0.007660431162222221</v>
+      </c>
+      <c r="R17">
+        <v>0.06894388046</v>
+      </c>
+      <c r="S17">
+        <v>0.000627627358101516</v>
+      </c>
+      <c r="T17">
+        <v>0.000627627358101516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.228309</v>
+      </c>
+      <c r="I18">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J18">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.346137</v>
+      </c>
+      <c r="N18">
+        <v>7.038411000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="P18">
+        <v>0.9031062577580099</v>
+      </c>
+      <c r="Q18">
+        <v>1.742639397444333</v>
+      </c>
+      <c r="R18">
+        <v>15.683754576999</v>
+      </c>
+      <c r="S18">
+        <v>0.1427763187188962</v>
+      </c>
+      <c r="T18">
+        <v>0.1427763187188962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.228309</v>
+      </c>
+      <c r="I19">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J19">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2414023333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.724207</v>
+      </c>
+      <c r="O19">
+        <v>0.09292379680756852</v>
+      </c>
+      <c r="P19">
+        <v>0.0929237968075685</v>
+      </c>
+      <c r="Q19">
+        <v>0.1793063306625556</v>
+      </c>
+      <c r="R19">
+        <v>1.613756975963</v>
+      </c>
+      <c r="S19">
+        <v>0.01469076037907643</v>
+      </c>
+      <c r="T19">
+        <v>0.01469076037907643</v>
       </c>
     </row>
   </sheetData>
